--- a/Index/GP Nr. 19-21.xlsx
+++ b/Index/GP Nr. 19-21.xlsx
@@ -1380,6 +1380,9 @@
       <c r="K20" t="n">
         <v>177</v>
       </c>
+      <c r="L20" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2324,6 +2327,9 @@
       </c>
       <c r="K20" t="n">
         <v>264.1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>219.5</v>
       </c>
     </row>
     <row r="21">
@@ -3265,6 +3271,9 @@
       <c r="K20" t="n">
         <v>264.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>219.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4205,6 +4214,9 @@
       <c r="K20" t="n">
         <v>257.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>216.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5406,6 +5418,9 @@
       <c r="K20" t="n">
         <v>247.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>238.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6346,6 +6361,9 @@
       <c r="K20" t="n">
         <v>144.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>143.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7286,6 +7304,9 @@
       <c r="K20" t="n">
         <v>160.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>166.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8226,6 +8247,9 @@
       <c r="K20" t="n">
         <v>163.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>167.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9166,6 +9190,9 @@
       <c r="K20" t="n">
         <v>182.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>176</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10106,6 +10133,9 @@
       <c r="K20" t="n">
         <v>182.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>176</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11046,6 +11076,9 @@
       <c r="K20" t="n">
         <v>149.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>146.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11986,6 +12019,9 @@
       <c r="K20" t="n">
         <v>176.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>162.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12926,6 +12962,9 @@
       <c r="K20" t="n">
         <v>159.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>155.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13866,6 +13905,9 @@
       <c r="K20" t="n">
         <v>224.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14806,6 +14848,9 @@
       <c r="K20" t="n">
         <v>135</v>
       </c>
+      <c r="L20" t="n">
+        <v>134.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15746,6 +15791,9 @@
       <c r="K20" t="n">
         <v>173.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>177.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16686,6 +16734,9 @@
       <c r="K20" t="n">
         <v>145.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17626,6 +17677,9 @@
       <c r="K20" t="n">
         <v>261.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18566,6 +18620,9 @@
       <c r="K20" t="n">
         <v>144.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>143.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19506,6 +19563,9 @@
       <c r="K20" t="n">
         <v>140.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -20446,6 +20506,9 @@
       <c r="K20" t="n">
         <v>161</v>
       </c>
+      <c r="L20" t="n">
+        <v>156.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -21386,6 +21449,9 @@
       <c r="K20" t="n">
         <v>133.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>135.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -22321,6 +22387,9 @@
       <c r="K20" t="n">
         <v>167.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>154.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -23262,6 +23331,9 @@
       <c r="K20" t="n">
         <v>133.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>132.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -24203,6 +24275,9 @@
       <c r="K20" t="n">
         <v>148.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>146.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -25143,6 +25218,9 @@
       <c r="K20" t="n">
         <v>161.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -26084,6 +26162,9 @@
       <c r="K20" t="n">
         <v>127.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>128.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -27024,6 +27105,9 @@
       <c r="K20" t="n">
         <v>127.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>127.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -27964,6 +28048,9 @@
       <c r="K20" t="n">
         <v>128.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>128.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -28904,6 +28991,9 @@
       <c r="K20" t="n">
         <v>141.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>140.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -29844,6 +29934,9 @@
       <c r="K20" t="n">
         <v>115.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>116.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -30784,6 +30877,9 @@
       <c r="K20" t="n">
         <v>148.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -31724,6 +31820,9 @@
       <c r="K20" t="n">
         <v>92.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>92.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -32664,6 +32763,9 @@
       <c r="K20" t="n">
         <v>144.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>135.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -33604,6 +33706,9 @@
       <c r="K20" t="n">
         <v>131.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>129.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -34544,6 +34649,9 @@
       <c r="K20" t="n">
         <v>142.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>142.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -35484,6 +35592,9 @@
       <c r="K20" t="n">
         <v>152</v>
       </c>
+      <c r="L20" t="n">
+        <v>150.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -36424,6 +36535,9 @@
       <c r="K20" t="n">
         <v>139.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>136.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -37364,6 +37478,9 @@
       <c r="K20" t="n">
         <v>109.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>109.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -38304,6 +38421,9 @@
       <c r="K20" t="n">
         <v>125.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>123.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -39245,6 +39365,9 @@
       <c r="K20" t="n">
         <v>107.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>108.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -40185,6 +40308,9 @@
       <c r="K20" t="n">
         <v>106.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>106.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -41121,6 +41247,9 @@
       <c r="K20" t="n">
         <v>107.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>107.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -42057,6 +42186,9 @@
       <c r="K20" t="n">
         <v>102.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>102.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -42997,6 +43129,9 @@
       <c r="K20" t="n">
         <v>152.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>162.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -43938,6 +44073,9 @@
       <c r="K20" t="n">
         <v>113.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>113.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -44878,6 +45016,9 @@
       <c r="K20" t="n">
         <v>185.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>170.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -45818,6 +45959,9 @@
       <c r="K20" t="n">
         <v>193.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>169.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -46758,6 +46902,9 @@
       <c r="K20" t="n">
         <v>192.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>169.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -47698,6 +47845,9 @@
       <c r="K20" t="n">
         <v>180.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>171.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">

--- a/Index/GP Nr. 19-21.xlsx
+++ b/Index/GP Nr. 19-21.xlsx
@@ -1,62 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GP = 19" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GP = 19 2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="GP Nr. 19-212" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GP = 19 20 21" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="GP = 19 20 23" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="GP = 19 20 26 005" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="GP = 19 20 26 005 1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="GP = 19 20 26 005 2" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="GP = 19 20 26 005 3" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="&#10;GP = 19 20 26 007" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="GP = 19 20 26 007 1" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="GP = 19 20 26 007 2" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="GP = 19 20 28 005007" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="GP = 19 20 29" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="GP = 19 20 31" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="GP = 19 20 31 001" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="GP = 19 20 4" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="GP = 19 20 42 500" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="GP = 20" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="GP = 20 1" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="GP = 20 11" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="GP = 20 12" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="GP = 20 13" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="GP = 20 14" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="GP = 20 15" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="GP = 20 16" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="GP = 20 16 1" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="GP = 20 16 2" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="GP = 20 16 3" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="GP = 20 16 4" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="GP = 20 16 5" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="GP = 20 17" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="GP = 20 2" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="GP = 20 3" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="GP = 20 4" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="GP = 20 41" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="GP = 20 42" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="GP = 20 5" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="GP = 20 51" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="GP = 20 52" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="GP = 20 53" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="GP = 20 59" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="GP = 20 6" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="GP = 21" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="GP = 21 1" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="GP = 21 2" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="GP = 21 20 1" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="GP Nr. 19-2147" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="GP Nr. 19-2148" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="GP = 21 20 2" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 19" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 19 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP Nr. 19-212" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 19 20 21" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 19 20 23" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 19 20 26 005" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 19 20 26 005 1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 19 20 26 005 2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 19 20 26 005 3" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="&#10;GP = 19 20 26 007" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 19 20 26 007 1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 19 20 26 007 2" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 19 20 28 005007" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 19 20 29" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 19 20 31" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 19 20 31 001" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 19 20 4" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 19 20 42 500" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20 1" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20 11" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20 12" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20 13" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20 14" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20 15" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20 16" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20 16 1" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20 16 2" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20 16 3" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20 16 4" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20 16 5" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20 17" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20 2" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20 3" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20 4" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20 41" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20 42" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20 5" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20 51" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20 52" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20 53" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20 59" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 20 6" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 21" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 21 1" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 21 2" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 21 20 1" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP Nr. 19-2147" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP Nr. 19-2148" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 21 20 2" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1383,6 +1383,12 @@
       <c r="L20" t="n">
         <v>163</v>
       </c>
+      <c r="M20" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>164.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2330,6 +2336,12 @@
       </c>
       <c r="L20" t="n">
         <v>219.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>202.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>228.8</v>
       </c>
     </row>
     <row r="21">
@@ -3274,6 +3286,12 @@
       <c r="L20" t="n">
         <v>219.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>202.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>229.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4217,6 +4235,12 @@
       <c r="L20" t="n">
         <v>216.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>202.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>225</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5421,6 +5445,12 @@
       <c r="L20" t="n">
         <v>238.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>210.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6364,6 +6394,12 @@
       <c r="L20" t="n">
         <v>143.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>136.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7307,6 +7343,12 @@
       <c r="L20" t="n">
         <v>166.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>157</v>
+      </c>
+      <c r="N20" t="n">
+        <v>178.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8250,6 +8292,12 @@
       <c r="L20" t="n">
         <v>167.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>162.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>185.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9193,6 +9241,12 @@
       <c r="L20" t="n">
         <v>176</v>
       </c>
+      <c r="M20" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>200.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10136,6 +10190,12 @@
       <c r="L20" t="n">
         <v>176</v>
       </c>
+      <c r="M20" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>200.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11079,6 +11139,12 @@
       <c r="L20" t="n">
         <v>146.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>142.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12022,6 +12088,12 @@
       <c r="L20" t="n">
         <v>162.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>163.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12965,6 +13037,12 @@
       <c r="L20" t="n">
         <v>155.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>154.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>150.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13908,6 +13986,12 @@
       <c r="L20" t="n">
         <v>187.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>177.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14851,6 +14935,12 @@
       <c r="L20" t="n">
         <v>134.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>131.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15794,6 +15884,12 @@
       <c r="L20" t="n">
         <v>177.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>179.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>151.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16737,6 +16833,12 @@
       <c r="L20" t="n">
         <v>144</v>
       </c>
+      <c r="M20" t="n">
+        <v>144.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>145.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17680,6 +17782,12 @@
       <c r="L20" t="n">
         <v>241</v>
       </c>
+      <c r="M20" t="n">
+        <v>226.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>217.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18623,6 +18731,12 @@
       <c r="L20" t="n">
         <v>143.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>142</v>
+      </c>
+      <c r="N20" t="n">
+        <v>141.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19566,6 +19680,12 @@
       <c r="L20" t="n">
         <v>140</v>
       </c>
+      <c r="M20" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>143.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -20509,6 +20629,12 @@
       <c r="L20" t="n">
         <v>156.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>152</v>
+      </c>
+      <c r="N20" t="n">
+        <v>158.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -21452,6 +21578,12 @@
       <c r="L20" t="n">
         <v>135.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>133.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>136.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -22390,6 +22522,12 @@
       <c r="L20" t="n">
         <v>154.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>142.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>155.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -23334,6 +23472,12 @@
       <c r="L20" t="n">
         <v>132.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>131.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -24278,6 +24422,12 @@
       <c r="L20" t="n">
         <v>146.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>145.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>143.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -25221,6 +25371,12 @@
       <c r="L20" t="n">
         <v>163</v>
       </c>
+      <c r="M20" t="n">
+        <v>162.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -26165,6 +26321,12 @@
       <c r="L20" t="n">
         <v>128.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -27108,6 +27270,12 @@
       <c r="L20" t="n">
         <v>127.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>124.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -28051,6 +28219,12 @@
       <c r="L20" t="n">
         <v>128.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>121.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -28994,6 +29168,12 @@
       <c r="L20" t="n">
         <v>140.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>131.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -29937,6 +30117,12 @@
       <c r="L20" t="n">
         <v>116.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>116.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>111.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -30880,6 +31066,12 @@
       <c r="L20" t="n">
         <v>147</v>
       </c>
+      <c r="M20" t="n">
+        <v>141.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>148.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -31823,6 +32015,12 @@
       <c r="L20" t="n">
         <v>92.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>92.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -32766,6 +32964,12 @@
       <c r="L20" t="n">
         <v>135.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>138.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -33709,6 +33913,12 @@
       <c r="L20" t="n">
         <v>129.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -34652,6 +34862,12 @@
       <c r="L20" t="n">
         <v>142.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>129.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -35595,6 +35811,12 @@
       <c r="L20" t="n">
         <v>150.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -36538,6 +36760,12 @@
       <c r="L20" t="n">
         <v>136.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>127.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -37481,6 +37709,12 @@
       <c r="L20" t="n">
         <v>109.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>108.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -38424,6 +38658,12 @@
       <c r="L20" t="n">
         <v>123.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>124.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -39368,6 +39608,12 @@
       <c r="L20" t="n">
         <v>108.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>108.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>107.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -40311,6 +40557,12 @@
       <c r="L20" t="n">
         <v>106.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>107</v>
+      </c>
+      <c r="N20" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -41250,6 +41502,12 @@
       <c r="L20" t="n">
         <v>107.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>107.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>106.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -42189,6 +42447,12 @@
       <c r="L20" t="n">
         <v>102.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>103</v>
+      </c>
+      <c r="N20" t="n">
+        <v>102.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -43132,6 +43396,12 @@
       <c r="L20" t="n">
         <v>162.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>145.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>172.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -44076,6 +44346,12 @@
       <c r="L20" t="n">
         <v>113.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>113.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>112.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -45019,6 +45295,12 @@
       <c r="L20" t="n">
         <v>170.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>168.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -45962,6 +46244,12 @@
       <c r="L20" t="n">
         <v>169.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>171.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -46905,6 +47193,12 @@
       <c r="L20" t="n">
         <v>169.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>161.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>172.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -47848,6 +48142,12 @@
       <c r="L20" t="n">
         <v>171.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>166.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
